--- a/ANOVA proof.xlsx
+++ b/ANOVA proof.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C63C18-647B-45B2-AB26-E21AE01BFDBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39132A6D-3201-4511-B1CB-03C02356417A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Factor</t>
   </si>
@@ -53,13 +53,16 @@
     <t>Diagram</t>
   </si>
   <si>
-    <t>AP_before</t>
-  </si>
-  <si>
-    <t>AP_arc</t>
-  </si>
-  <si>
-    <t>AP_after</t>
+    <t>arc</t>
+  </si>
+  <si>
+    <t>arc_5</t>
+  </si>
+  <si>
+    <t>arc_10</t>
+  </si>
+  <si>
+    <t>arc_20</t>
   </si>
 </sst>
 </file>
@@ -808,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,84 +917,125 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99717FAC-77C5-4393-AF68-634B795CED2A}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="2">
+        <v>2.34853506252349E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.90412869027728304</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.81231558042444296</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.99067466020273898</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.95142742786068901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B4" s="2">
+        <v>0.57273509519260801</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.85121569865356905</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.81991676905815603</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.70920784038199602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5" s="1">
+        <v>4.6994449576923198E-8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6.6078551082356695E-5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.2343879491011601E-6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5.2794618922719197E-5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>120</v>
-      </c>
-      <c r="D2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>280</v>
-      </c>
-      <c r="D3">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>440</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>600</v>
-      </c>
-      <c r="D5">
-        <v>1.1000000000000001</v>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.99264171121725397</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.99257018788094598</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.99667555675897401</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.96579927147829603</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B3:E6">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>